--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,127 +58,127 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>gt</t>
@@ -715,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -997,7 +997,7 @@
         <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>459</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.9777777777777777</v>
@@ -1072,32 +1072,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1065573770491803</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>231</v>
-      </c>
-      <c r="E9">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>109</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.9655172413793104</v>
@@ -1123,7 +1099,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1149,7 +1125,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.9316239316239316</v>
@@ -1175,7 +1151,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.9166666666666666</v>
@@ -1201,7 +1177,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.9090909090909091</v>
@@ -1227,7 +1203,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.9090909090909091</v>
@@ -1253,7 +1229,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.8899082568807339</v>
@@ -1279,7 +1255,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.889763779527559</v>
@@ -1305,7 +1281,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.8888888888888888</v>
@@ -1331,7 +1307,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.8846153846153846</v>
@@ -1357,7 +1333,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.8823529411764706</v>
@@ -1383,7 +1359,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.8666666666666667</v>
@@ -1409,7 +1385,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.8666666666666667</v>
@@ -1435,7 +1411,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.85</v>
@@ -1461,7 +1437,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.8421052631578947</v>
@@ -1487,7 +1463,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>0.84</v>
@@ -1513,7 +1489,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.8297872340425532</v>
@@ -1539,7 +1515,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.8214285714285714</v>
@@ -1565,7 +1541,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>0.8205128205128205</v>
@@ -1591,7 +1567,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>0.8125</v>
@@ -1617,7 +1593,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>0.8095238095238095</v>
@@ -1643,7 +1619,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>0.7878787878787878</v>
@@ -1669,7 +1645,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.7730496453900709</v>
@@ -1695,85 +1671,85 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.7665198237885462</v>
+        <v>0.75</v>
       </c>
       <c r="L32">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.7333333333333333</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="N34">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>0.7254901960784313</v>
@@ -1799,7 +1775,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>0.7222222222222222</v>
@@ -1825,7 +1801,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>0.7222222222222222</v>
@@ -1851,7 +1827,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>0.7222222222222222</v>
@@ -1877,7 +1853,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
         <v>0.6818181818181818</v>
@@ -1903,28 +1879,28 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>0.6666666666666666</v>
       </c>
       <c r="L40">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>109</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1932,25 +1908,25 @@
         <v>53</v>
       </c>
       <c r="K41">
-        <v>0.6666666666666666</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N41">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="O41">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1958,25 +1934,25 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.6515151515151515</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L42">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="M42">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="N42">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="10:17">
